--- a/문서/Floor.xlsx
+++ b/문서/Floor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJpark\Desktop\PROJ\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F8B234-A487-4CE6-97D4-F5F847A5CAC4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD29778C-F158-4B12-8001-0DC0FB332479}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7B0BA66B-EC9C-4FB7-BDAE-0FECD7C5542B}"/>
   </bookViews>
@@ -1754,7 +1754,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="6">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2161,10 +2161,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE51F1E7-697D-4B96-A31C-8C39D7BCE72B}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2195,7 +2195,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="D2">
         <v>1001</v>
@@ -2209,7 +2209,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D3">
         <v>1002</v>
@@ -2223,7 +2223,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>1003</v>
@@ -2251,15 +2251,184 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>2002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1007</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="D8">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1008</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1009</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>80</v>
+      </c>
+      <c r="D10">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1010</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>80</v>
+      </c>
+      <c r="D11">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1011</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>300</v>
+      </c>
+      <c r="D12">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1012</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>300</v>
+      </c>
+      <c r="D13">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1013</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>300</v>
+      </c>
+      <c r="D14">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1014</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>150</v>
+      </c>
+      <c r="D15">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1015</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>50</v>
+      </c>
+      <c r="D16">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1016</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>300</v>
+      </c>
+      <c r="D17">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1017</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>1010</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>